--- a/docs/timesheet_Dwiezel_VanEeckhout.xlsx
+++ b/docs/timesheet_Dwiezel_VanEeckhout.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dwiezel\Google Drive\HistoGent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dwiezel/Google Drive/HistoGent/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="23085" windowHeight="17340" tabRatio="500"/>
+    <workbookView xWindow="520" yWindow="440" windowWidth="23080" windowHeight="17340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -62,73 +62,79 @@
     <t>Milestone 1</t>
   </si>
   <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>Toeristische plekjes</t>
+  </si>
+  <si>
+    <t>Aanpassen productiedossier na feedback</t>
+  </si>
+  <si>
+    <t>Style tile</t>
+  </si>
+  <si>
+    <t>Style tile afwerken</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>Visual Designs</t>
+  </si>
+  <si>
+    <t>Aanpassen wireframes na feedback</t>
+  </si>
+  <si>
+    <t>Wireflow hermaken</t>
+  </si>
+  <si>
+    <t>Weerbericht</t>
+  </si>
+  <si>
+    <t>Alle databanken laden</t>
+  </si>
+  <si>
+    <t>Voorbereiding milestone 2 + feedback</t>
+  </si>
+  <si>
+    <t>CSS, Databanken</t>
+  </si>
+  <si>
+    <t>Favorieten, login</t>
+  </si>
+  <si>
+    <t>Poster aanpassen</t>
+  </si>
+  <si>
+    <t>Google maps, favorieten lay-out</t>
+  </si>
+  <si>
+    <t>DES/DEV</t>
+  </si>
+  <si>
+    <t>TOTAAL individueel</t>
+  </si>
+  <si>
+    <t>TOTAAL groepswerk</t>
+  </si>
+  <si>
+    <t>Laatste les, afwerken, online zetten, spinner</t>
+  </si>
+  <si>
+    <t>Timesheet toevoegen, dossier &amp; poster klaarmaken</t>
+  </si>
+  <si>
+    <t>CSS &amp; jeykll structuur aanpassen</t>
+  </si>
+  <si>
     <t>TOTAAL</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>Toeristische plekjes</t>
-  </si>
-  <si>
-    <t>Aanpassen productiedossier na feedback</t>
-  </si>
-  <si>
-    <t>Style tile</t>
-  </si>
-  <si>
-    <t>Style tile afwerken</t>
-  </si>
-  <si>
-    <t>Wireframe</t>
-  </si>
-  <si>
-    <t>Visual Designs</t>
-  </si>
-  <si>
-    <t>Aanpassen wireframes na feedback</t>
-  </si>
-  <si>
-    <t>Wireflow hermaken</t>
-  </si>
-  <si>
-    <t>Weerbericht</t>
-  </si>
-  <si>
-    <t>Alle databanken laden</t>
-  </si>
-  <si>
-    <t>Voorbereiding milestone 2 + feedback</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>CSS, Databanken</t>
-  </si>
-  <si>
-    <t>Favorieten, login</t>
-  </si>
-  <si>
-    <t>Poster aanpassen</t>
-  </si>
-  <si>
-    <t>Google maps, favorieten lay-out</t>
-  </si>
-  <si>
-    <t>Laatste les, afwerken, online zetten</t>
-  </si>
-  <si>
-    <t>DES/DEV</t>
-  </si>
-  <si>
-    <t>spinner maken, timesheet toevoegen, dossier klaarmaken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -182,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -190,9 +196,12 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -534,19 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -565,13 +575,8 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2">
-        <f>SUM(E2:E30)</f>
-        <v>94.5</v>
-      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -586,7 +591,7 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>2</v>
       </c>
     </row>
@@ -603,7 +608,7 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>2</v>
       </c>
     </row>
@@ -620,7 +625,7 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>3</v>
       </c>
     </row>
@@ -637,7 +642,7 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
     </row>
@@ -654,8 +659,15 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(E2:E6)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -666,12 +678,12 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
     </row>
@@ -686,9 +698,9 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7">
         <v>4</v>
       </c>
     </row>
@@ -703,9 +715,9 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -720,9 +732,9 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -737,9 +749,9 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" s="7">
         <v>1</v>
       </c>
     </row>
@@ -754,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -771,10 +783,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -788,10 +800,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -802,12 +814,12 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7">
         <v>5</v>
       </c>
     </row>
@@ -819,16 +831,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42713</v>
       </c>
@@ -836,16 +848,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2">
+        <v>22</v>
+      </c>
+      <c r="E17" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42719</v>
       </c>
@@ -853,16 +865,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E18" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>42721</v>
       </c>
@@ -870,16 +882,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>42722</v>
       </c>
@@ -887,16 +899,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2">
+        <v>23</v>
+      </c>
+      <c r="E20" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>42723</v>
       </c>
@@ -904,16 +916,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>42724</v>
       </c>
@@ -921,16 +933,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42725</v>
       </c>
@@ -941,13 +953,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42726</v>
       </c>
@@ -955,16 +967,16 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2">
+        <v>30</v>
+      </c>
+      <c r="E24" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42727</v>
       </c>
@@ -972,13 +984,29 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="2">
-        <v>5</v>
+      <c r="E25" s="7">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="9">
+        <f>SUM(E7:E25)</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="9">
+        <f>SUM(E2:E25)</f>
+        <v>101.5</v>
       </c>
     </row>
   </sheetData>
